--- a/graph/clean_data.xlsx
+++ b/graph/clean_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="27">
   <si>
     <t>input case</t>
   </si>
@@ -50,18 +50,6 @@
   </si>
   <si>
     <t>Descending</t>
-  </si>
-  <si>
-    <t>x=10000</t>
-  </si>
-  <si>
-    <t>2x</t>
-  </si>
-  <si>
-    <t>4x</t>
-  </si>
-  <si>
-    <t>8x</t>
   </si>
   <si>
     <t>Insertion</t>
@@ -497,31 +485,31 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
+      <c r="B3">
+        <v>20000</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -536,15 +524,15 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
+      <c r="B4">
+        <v>40000</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -559,15 +547,15 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
+      <c r="B5">
+        <v>80000</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -582,15 +570,15 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
+      <c r="B6">
+        <v>10000</v>
       </c>
       <c r="C6">
         <v>0.045</v>
@@ -605,15 +593,15 @@
         <v>0.04533333333</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
+      <c r="B7">
+        <v>20000</v>
       </c>
       <c r="C7">
         <v>0.179</v>
@@ -628,15 +616,15 @@
         <v>0.1823333333</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
+      <c r="B8">
+        <v>40000</v>
       </c>
       <c r="C8">
         <v>0.759</v>
@@ -651,15 +639,15 @@
         <v>0.7593333333</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
+      <c r="B9">
+        <v>80000</v>
       </c>
       <c r="C9">
         <v>3.247</v>
@@ -674,15 +662,15 @@
         <v>3.244666667</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
+      <c r="B10">
+        <v>10000</v>
       </c>
       <c r="C10">
         <v>0.046</v>
@@ -697,15 +685,15 @@
         <v>0.04566666667</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
+      <c r="B11">
+        <v>20000</v>
       </c>
       <c r="C11">
         <v>0.182</v>
@@ -720,15 +708,15 @@
         <v>0.1843333333</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
+      <c r="B12">
+        <v>40000</v>
       </c>
       <c r="C12">
         <v>0.759</v>
@@ -743,15 +731,15 @@
         <v>0.7676666667000001</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
-        <v>15</v>
+      <c r="B13">
+        <v>80000</v>
       </c>
       <c r="C13">
         <v>3.338</v>
@@ -766,15 +754,15 @@
         <v>3.337666667</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
+      <c r="B14">
+        <v>10000</v>
       </c>
       <c r="C14">
         <v>0.044</v>
@@ -789,15 +777,15 @@
         <v>0.045</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
+      <c r="B15">
+        <v>20000</v>
       </c>
       <c r="C15">
         <v>0.177</v>
@@ -812,15 +800,15 @@
         <v>0.1813333333</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
+      <c r="B16">
+        <v>40000</v>
       </c>
       <c r="C16">
         <v>0.734</v>
@@ -835,15 +823,15 @@
         <v>0.7373333332999999</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B17" t="s">
-        <v>15</v>
+      <c r="B17">
+        <v>80000</v>
       </c>
       <c r="C17">
         <v>3.228</v>
@@ -858,15 +846,15 @@
         <v>3.283</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
-        <v>12</v>
+      <c r="B18">
+        <v>10000</v>
       </c>
       <c r="C18">
         <v>0.1</v>
@@ -881,15 +869,15 @@
         <v>0.09533333333000001</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" t="s">
-        <v>13</v>
+      <c r="B19">
+        <v>20000</v>
       </c>
       <c r="C19">
         <v>0.363</v>
@@ -904,15 +892,15 @@
         <v>0.3646666667</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="B20" t="s">
-        <v>14</v>
+      <c r="B20">
+        <v>40000</v>
       </c>
       <c r="C20">
         <v>1.479</v>
@@ -927,15 +915,15 @@
         <v>1.478</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B21" t="s">
-        <v>15</v>
+      <c r="B21">
+        <v>80000</v>
       </c>
       <c r="C21">
         <v>5.795</v>
@@ -950,15 +938,15 @@
         <v>5.878333333</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>7</v>
       </c>
-      <c r="B22" t="s">
-        <v>12</v>
+      <c r="B22">
+        <v>10000</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -973,38 +961,38 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>7</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23">
+        <v>20000</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
         <v>13</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>7</v>
       </c>
-      <c r="B24" t="s">
-        <v>14</v>
+      <c r="B24">
+        <v>40000</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1019,15 +1007,15 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="B25" t="s">
-        <v>15</v>
+      <c r="B25">
+        <v>80000</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1042,15 +1030,15 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>8</v>
       </c>
-      <c r="B26" t="s">
-        <v>12</v>
+      <c r="B26">
+        <v>10000</v>
       </c>
       <c r="C26">
         <v>0.105</v>
@@ -1065,15 +1053,15 @@
         <v>0.1063333333</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>8</v>
       </c>
-      <c r="B27" t="s">
-        <v>13</v>
+      <c r="B27">
+        <v>20000</v>
       </c>
       <c r="C27">
         <v>0.55</v>
@@ -1088,15 +1076,15 @@
         <v>0.5583333333</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>8</v>
       </c>
-      <c r="B28" t="s">
-        <v>14</v>
+      <c r="B28">
+        <v>40000</v>
       </c>
       <c r="C28">
         <v>2.453</v>
@@ -1111,15 +1099,15 @@
         <v>2.481666667</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>8</v>
       </c>
-      <c r="B29" t="s">
-        <v>15</v>
+      <c r="B29">
+        <v>80000</v>
       </c>
       <c r="C29">
         <v>9.406000000000001</v>
@@ -1134,15 +1122,15 @@
         <v>9.508333332999999</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>9</v>
       </c>
-      <c r="B30" t="s">
-        <v>12</v>
+      <c r="B30">
+        <v>10000</v>
       </c>
       <c r="C30">
         <v>0.104</v>
@@ -1157,15 +1145,15 @@
         <v>0.106</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="B31" t="s">
-        <v>13</v>
+      <c r="B31">
+        <v>20000</v>
       </c>
       <c r="C31">
         <v>0.55</v>
@@ -1180,15 +1168,15 @@
         <v>0.552</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>9</v>
       </c>
-      <c r="B32" t="s">
-        <v>14</v>
+      <c r="B32">
+        <v>40000</v>
       </c>
       <c r="C32">
         <v>2.449</v>
@@ -1203,15 +1191,15 @@
         <v>2.459</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>9</v>
       </c>
-      <c r="B33" t="s">
-        <v>15</v>
+      <c r="B33">
+        <v>80000</v>
       </c>
       <c r="C33">
         <v>9.433</v>
@@ -1226,15 +1214,15 @@
         <v>9.557666666999999</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>10</v>
       </c>
-      <c r="B34" t="s">
-        <v>12</v>
+      <c r="B34">
+        <v>10000</v>
       </c>
       <c r="C34">
         <v>0.106</v>
@@ -1249,15 +1237,15 @@
         <v>0.1076666667</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>10</v>
       </c>
-      <c r="B35" t="s">
-        <v>13</v>
+      <c r="B35">
+        <v>20000</v>
       </c>
       <c r="C35">
         <v>0.553</v>
@@ -1272,15 +1260,15 @@
         <v>0.5580000000000001</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>10</v>
       </c>
-      <c r="B36" t="s">
-        <v>14</v>
+      <c r="B36">
+        <v>40000</v>
       </c>
       <c r="C36">
         <v>2.451</v>
@@ -1295,15 +1283,15 @@
         <v>2.508</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>10</v>
       </c>
-      <c r="B37" t="s">
-        <v>15</v>
+      <c r="B37">
+        <v>80000</v>
       </c>
       <c r="C37">
         <v>9.228</v>
@@ -1318,15 +1306,15 @@
         <v>9.404333333</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>11</v>
       </c>
-      <c r="B38" t="s">
-        <v>12</v>
+      <c r="B38">
+        <v>10000</v>
       </c>
       <c r="C38">
         <v>0.106</v>
@@ -1341,15 +1329,15 @@
         <v>0.1076666667</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>11</v>
       </c>
-      <c r="B39" t="s">
-        <v>13</v>
+      <c r="B39">
+        <v>20000</v>
       </c>
       <c r="C39">
         <v>0.414</v>
@@ -1364,15 +1352,15 @@
         <v>0.4173333333</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>11</v>
       </c>
-      <c r="B40" t="s">
-        <v>14</v>
+      <c r="B40">
+        <v>40000</v>
       </c>
       <c r="C40">
         <v>1.686</v>
@@ -1387,15 +1375,15 @@
         <v>1.69</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>11</v>
       </c>
-      <c r="B41" t="s">
-        <v>15</v>
+      <c r="B41">
+        <v>80000</v>
       </c>
       <c r="C41">
         <v>6.657</v>
@@ -1410,15 +1398,15 @@
         <v>6.749333333</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>7</v>
       </c>
-      <c r="B42" t="s">
-        <v>12</v>
+      <c r="B42">
+        <v>10000</v>
       </c>
       <c r="C42">
         <v>0.034</v>
@@ -1433,15 +1421,15 @@
         <v>0.034</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>7</v>
       </c>
-      <c r="B43" t="s">
-        <v>13</v>
+      <c r="B43">
+        <v>20000</v>
       </c>
       <c r="C43">
         <v>0.136</v>
@@ -1456,15 +1444,15 @@
         <v>0.1386666667</v>
       </c>
       <c r="G43" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>7</v>
       </c>
-      <c r="B44" t="s">
-        <v>14</v>
+      <c r="B44">
+        <v>40000</v>
       </c>
       <c r="C44">
         <v>0.551</v>
@@ -1479,15 +1467,15 @@
         <v>0.5556666667</v>
       </c>
       <c r="G44" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>7</v>
       </c>
-      <c r="B45" t="s">
-        <v>15</v>
+      <c r="B45">
+        <v>80000</v>
       </c>
       <c r="C45">
         <v>2.178</v>
@@ -1502,15 +1490,15 @@
         <v>2.202333333</v>
       </c>
       <c r="G45" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>8</v>
       </c>
-      <c r="B46" t="s">
-        <v>12</v>
+      <c r="B46">
+        <v>10000</v>
       </c>
       <c r="C46">
         <v>0.035</v>
@@ -1525,15 +1513,15 @@
         <v>0.035</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>8</v>
       </c>
-      <c r="B47" t="s">
-        <v>13</v>
+      <c r="B47">
+        <v>20000</v>
       </c>
       <c r="C47">
         <v>0.141</v>
@@ -1548,15 +1536,15 @@
         <v>0.1386666667</v>
       </c>
       <c r="G47" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>8</v>
       </c>
-      <c r="B48" t="s">
-        <v>14</v>
+      <c r="B48">
+        <v>40000</v>
       </c>
       <c r="C48">
         <v>0.577</v>
@@ -1571,15 +1559,15 @@
         <v>0.5806666667</v>
       </c>
       <c r="G48" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>8</v>
       </c>
-      <c r="B49" t="s">
-        <v>15</v>
+      <c r="B49">
+        <v>80000</v>
       </c>
       <c r="C49">
         <v>2.255</v>
@@ -1594,15 +1582,15 @@
         <v>2.215666667</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>9</v>
       </c>
-      <c r="B50" t="s">
-        <v>12</v>
+      <c r="B50">
+        <v>10000</v>
       </c>
       <c r="C50">
         <v>0.035</v>
@@ -1617,15 +1605,15 @@
         <v>0.03533333333</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>9</v>
       </c>
-      <c r="B51" t="s">
-        <v>13</v>
+      <c r="B51">
+        <v>20000</v>
       </c>
       <c r="C51">
         <v>0.14</v>
@@ -1640,15 +1628,15 @@
         <v>0.1396666667</v>
       </c>
       <c r="G51" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>9</v>
       </c>
-      <c r="B52" t="s">
-        <v>14</v>
+      <c r="B52">
+        <v>40000</v>
       </c>
       <c r="C52">
         <v>0.5600000000000001</v>
@@ -1663,15 +1651,15 @@
         <v>0.5656666667</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>9</v>
       </c>
-      <c r="B53" t="s">
-        <v>15</v>
+      <c r="B53">
+        <v>80000</v>
       </c>
       <c r="C53">
         <v>2.271</v>
@@ -1686,15 +1674,15 @@
         <v>2.272666667</v>
       </c>
       <c r="G53" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>10</v>
       </c>
-      <c r="B54" t="s">
-        <v>12</v>
+      <c r="B54">
+        <v>10000</v>
       </c>
       <c r="C54">
         <v>0.035</v>
@@ -1709,15 +1697,15 @@
         <v>0.03566666667</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>10</v>
       </c>
-      <c r="B55" t="s">
-        <v>13</v>
+      <c r="B55">
+        <v>20000</v>
       </c>
       <c r="C55">
         <v>0.138</v>
@@ -1732,15 +1720,15 @@
         <v>0.139</v>
       </c>
       <c r="G55" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>10</v>
       </c>
-      <c r="B56" t="s">
-        <v>14</v>
+      <c r="B56">
+        <v>40000</v>
       </c>
       <c r="C56">
         <v>0.5649999999999999</v>
@@ -1755,15 +1743,15 @@
         <v>0.5613333333</v>
       </c>
       <c r="G56" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>10</v>
       </c>
-      <c r="B57" t="s">
-        <v>15</v>
+      <c r="B57">
+        <v>80000</v>
       </c>
       <c r="C57">
         <v>2.244</v>
@@ -1778,15 +1766,15 @@
         <v>2.271333333</v>
       </c>
       <c r="G57" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>11</v>
       </c>
-      <c r="B58" t="s">
-        <v>12</v>
+      <c r="B58">
+        <v>10000</v>
       </c>
       <c r="C58">
         <v>0.034</v>
@@ -1801,15 +1789,15 @@
         <v>0.034</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>11</v>
       </c>
-      <c r="B59" t="s">
-        <v>13</v>
+      <c r="B59">
+        <v>20000</v>
       </c>
       <c r="C59">
         <v>0.148</v>
@@ -1824,15 +1812,15 @@
         <v>0.1446666667</v>
       </c>
       <c r="G59" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>11</v>
       </c>
-      <c r="B60" t="s">
-        <v>14</v>
+      <c r="B60">
+        <v>40000</v>
       </c>
       <c r="C60">
         <v>0.582</v>
@@ -1847,15 +1835,15 @@
         <v>0.578</v>
       </c>
       <c r="G60" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>11</v>
       </c>
-      <c r="B61" t="s">
-        <v>15</v>
+      <c r="B61">
+        <v>80000</v>
       </c>
       <c r="C61">
         <v>2.331</v>
@@ -1870,15 +1858,15 @@
         <v>2.325333333</v>
       </c>
       <c r="G61" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>7</v>
       </c>
-      <c r="B62" t="s">
-        <v>12</v>
+      <c r="B62">
+        <v>10000</v>
       </c>
       <c r="C62">
         <v>0.002</v>
@@ -1893,15 +1881,15 @@
         <v>0.001333333333</v>
       </c>
       <c r="G62" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>7</v>
       </c>
-      <c r="B63" t="s">
-        <v>13</v>
+      <c r="B63">
+        <v>20000</v>
       </c>
       <c r="C63">
         <v>0.004</v>
@@ -1916,15 +1904,15 @@
         <v>0.003666666667</v>
       </c>
       <c r="G63" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>7</v>
       </c>
-      <c r="B64" t="s">
-        <v>14</v>
+      <c r="B64">
+        <v>40000</v>
       </c>
       <c r="C64">
         <v>0.007</v>
@@ -1939,15 +1927,15 @@
         <v>0.007333333333</v>
       </c>
       <c r="G64" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>7</v>
       </c>
-      <c r="B65" t="s">
-        <v>15</v>
+      <c r="B65">
+        <v>80000</v>
       </c>
       <c r="C65">
         <v>0.001</v>
@@ -1962,15 +1950,15 @@
         <v>0.001333333333</v>
       </c>
       <c r="G65" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>8</v>
       </c>
-      <c r="B66" t="s">
-        <v>12</v>
+      <c r="B66">
+        <v>10000</v>
       </c>
       <c r="C66">
         <v>0.001</v>
@@ -1985,15 +1973,15 @@
         <v>0.001666666667</v>
       </c>
       <c r="G66" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>8</v>
       </c>
-      <c r="B67" t="s">
-        <v>13</v>
+      <c r="B67">
+        <v>20000</v>
       </c>
       <c r="C67">
         <v>0.003</v>
@@ -2008,15 +1996,15 @@
         <v>0.003333333333</v>
       </c>
       <c r="G67" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>8</v>
       </c>
-      <c r="B68" t="s">
-        <v>14</v>
+      <c r="B68">
+        <v>40000</v>
       </c>
       <c r="C68">
         <v>0.007</v>
@@ -2031,15 +2019,15 @@
         <v>0.007</v>
       </c>
       <c r="G68" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>8</v>
       </c>
-      <c r="B69" t="s">
-        <v>15</v>
+      <c r="B69">
+        <v>80000</v>
       </c>
       <c r="C69">
         <v>0.014</v>
@@ -2054,15 +2042,15 @@
         <v>0.014</v>
       </c>
       <c r="G69" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>9</v>
       </c>
-      <c r="B70" t="s">
-        <v>12</v>
+      <c r="B70">
+        <v>10000</v>
       </c>
       <c r="C70">
         <v>0.001</v>
@@ -2077,15 +2065,15 @@
         <v>0.001</v>
       </c>
       <c r="G70" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>9</v>
       </c>
-      <c r="B71" t="s">
-        <v>13</v>
+      <c r="B71">
+        <v>20000</v>
       </c>
       <c r="C71">
         <v>0.002</v>
@@ -2100,15 +2088,15 @@
         <v>0.002666666667</v>
       </c>
       <c r="G71" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>9</v>
       </c>
-      <c r="B72" t="s">
-        <v>14</v>
+      <c r="B72">
+        <v>40000</v>
       </c>
       <c r="C72">
         <v>0.007</v>
@@ -2123,15 +2111,15 @@
         <v>0.007</v>
       </c>
       <c r="G72" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>9</v>
       </c>
-      <c r="B73" t="s">
-        <v>15</v>
+      <c r="B73">
+        <v>80000</v>
       </c>
       <c r="C73">
         <v>0.013</v>
@@ -2146,15 +2134,15 @@
         <v>0.01366666667</v>
       </c>
       <c r="G73" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>10</v>
       </c>
-      <c r="B74" t="s">
-        <v>12</v>
+      <c r="B74">
+        <v>10000</v>
       </c>
       <c r="C74">
         <v>0.001</v>
@@ -2169,15 +2157,15 @@
         <v>0.001</v>
       </c>
       <c r="G74" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>10</v>
       </c>
-      <c r="B75" t="s">
-        <v>13</v>
+      <c r="B75">
+        <v>20000</v>
       </c>
       <c r="C75">
         <v>0.003</v>
@@ -2192,15 +2180,15 @@
         <v>0.003</v>
       </c>
       <c r="G75" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>10</v>
       </c>
-      <c r="B76" t="s">
-        <v>14</v>
+      <c r="B76">
+        <v>40000</v>
       </c>
       <c r="C76">
         <v>0.007</v>
@@ -2215,15 +2203,15 @@
         <v>0.007</v>
       </c>
       <c r="G76" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>10</v>
       </c>
-      <c r="B77" t="s">
-        <v>15</v>
+      <c r="B77">
+        <v>80000</v>
       </c>
       <c r="C77">
         <v>0.014</v>
@@ -2238,15 +2226,15 @@
         <v>0.01366666667</v>
       </c>
       <c r="G77" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>11</v>
       </c>
-      <c r="B78" t="s">
-        <v>12</v>
+      <c r="B78">
+        <v>10000</v>
       </c>
       <c r="C78">
         <v>0.001</v>
@@ -2261,15 +2249,15 @@
         <v>0.0006666666667</v>
       </c>
       <c r="G78" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>11</v>
       </c>
-      <c r="B79" t="s">
-        <v>13</v>
+      <c r="B79">
+        <v>20000</v>
       </c>
       <c r="C79">
         <v>0.008</v>
@@ -2284,15 +2272,15 @@
         <v>0.008333333332999999</v>
       </c>
       <c r="G79" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>11</v>
       </c>
-      <c r="B80" t="s">
-        <v>14</v>
+      <c r="B80">
+        <v>40000</v>
       </c>
       <c r="C80">
         <v>0.001</v>
@@ -2307,15 +2295,15 @@
         <v>0.001333333333</v>
       </c>
       <c r="G80" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>11</v>
       </c>
-      <c r="B81" t="s">
-        <v>15</v>
+      <c r="B81">
+        <v>80000</v>
       </c>
       <c r="C81">
         <v>0.003</v>
@@ -2330,15 +2318,15 @@
         <v>0.002666666667</v>
       </c>
       <c r="G81" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>7</v>
       </c>
-      <c r="B82" t="s">
-        <v>12</v>
+      <c r="B82">
+        <v>10000</v>
       </c>
       <c r="C82">
         <v>0.012</v>
@@ -2353,15 +2341,15 @@
         <v>0.01133333333</v>
       </c>
       <c r="G82" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>7</v>
       </c>
-      <c r="B83" t="s">
-        <v>13</v>
+      <c r="B83">
+        <v>20000</v>
       </c>
       <c r="C83">
         <v>0.023</v>
@@ -2376,15 +2364,15 @@
         <v>0.02766666667</v>
       </c>
       <c r="G83" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>7</v>
       </c>
-      <c r="B84" t="s">
-        <v>14</v>
+      <c r="B84">
+        <v>40000</v>
       </c>
       <c r="C84">
         <v>0.049</v>
@@ -2399,15 +2387,15 @@
         <v>0.05</v>
       </c>
       <c r="G84" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>7</v>
       </c>
-      <c r="B85" t="s">
-        <v>15</v>
+      <c r="B85">
+        <v>80000</v>
       </c>
       <c r="C85">
         <v>0.091</v>
@@ -2422,15 +2410,15 @@
         <v>0.09533333333000001</v>
       </c>
       <c r="G85" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>8</v>
       </c>
-      <c r="B86" t="s">
-        <v>12</v>
+      <c r="B86">
+        <v>10000</v>
       </c>
       <c r="C86">
         <v>0.017</v>
@@ -2445,15 +2433,15 @@
         <v>0.01866666667</v>
       </c>
       <c r="G86" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>8</v>
       </c>
-      <c r="B87" t="s">
-        <v>13</v>
+      <c r="B87">
+        <v>20000</v>
       </c>
       <c r="C87">
         <v>0.036</v>
@@ -2468,15 +2456,15 @@
         <v>0.034</v>
       </c>
       <c r="G87" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>8</v>
       </c>
-      <c r="B88" t="s">
-        <v>14</v>
+      <c r="B88">
+        <v>40000</v>
       </c>
       <c r="C88">
         <v>0.07000000000000001</v>
@@ -2491,15 +2479,15 @@
         <v>0.06933333333</v>
       </c>
       <c r="G88" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>8</v>
       </c>
-      <c r="B89" t="s">
-        <v>15</v>
+      <c r="B89">
+        <v>80000</v>
       </c>
       <c r="C89">
         <v>0.152</v>
@@ -2514,15 +2502,15 @@
         <v>0.153</v>
       </c>
       <c r="G89" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>9</v>
       </c>
-      <c r="B90" t="s">
-        <v>12</v>
+      <c r="B90">
+        <v>10000</v>
       </c>
       <c r="C90">
         <v>0.016</v>
@@ -2537,15 +2525,15 @@
         <v>0.017</v>
       </c>
       <c r="G90" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>9</v>
       </c>
-      <c r="B91" t="s">
-        <v>13</v>
+      <c r="B91">
+        <v>20000</v>
       </c>
       <c r="C91">
         <v>0.033</v>
@@ -2560,15 +2548,15 @@
         <v>0.03233333333</v>
       </c>
       <c r="G91" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>9</v>
       </c>
-      <c r="B92" t="s">
-        <v>14</v>
+      <c r="B92">
+        <v>40000</v>
       </c>
       <c r="C92">
         <v>0.067</v>
@@ -2583,15 +2571,15 @@
         <v>0.06866666667</v>
       </c>
       <c r="G92" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>9</v>
       </c>
-      <c r="B93" t="s">
-        <v>15</v>
+      <c r="B93">
+        <v>80000</v>
       </c>
       <c r="C93">
         <v>0.141</v>
@@ -2606,15 +2594,15 @@
         <v>0.1453333333</v>
       </c>
       <c r="G93" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>10</v>
       </c>
-      <c r="B94" t="s">
-        <v>12</v>
+      <c r="B94">
+        <v>10000</v>
       </c>
       <c r="C94">
         <v>0.016</v>
@@ -2629,15 +2617,15 @@
         <v>0.017</v>
       </c>
       <c r="G94" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>10</v>
       </c>
-      <c r="B95" t="s">
-        <v>13</v>
+      <c r="B95">
+        <v>20000</v>
       </c>
       <c r="C95">
         <v>0.037</v>
@@ -2652,15 +2640,15 @@
         <v>0.03366666667</v>
       </c>
       <c r="G95" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>10</v>
       </c>
-      <c r="B96" t="s">
-        <v>14</v>
+      <c r="B96">
+        <v>40000</v>
       </c>
       <c r="C96">
         <v>0.07199999999999999</v>
@@ -2675,15 +2663,15 @@
         <v>0.07533333333</v>
       </c>
       <c r="G96" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>10</v>
       </c>
-      <c r="B97" t="s">
-        <v>15</v>
+      <c r="B97">
+        <v>80000</v>
       </c>
       <c r="C97">
         <v>0.158</v>
@@ -2698,15 +2686,15 @@
         <v>0.157</v>
       </c>
       <c r="G97" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>11</v>
       </c>
-      <c r="B98" t="s">
-        <v>12</v>
+      <c r="B98">
+        <v>10000</v>
       </c>
       <c r="C98">
         <v>0.011</v>
@@ -2721,15 +2709,15 @@
         <v>0.01133333333</v>
       </c>
       <c r="G98" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>11</v>
       </c>
-      <c r="B99" t="s">
-        <v>13</v>
+      <c r="B99">
+        <v>20000</v>
       </c>
       <c r="C99">
         <v>0.023</v>
@@ -2744,15 +2732,15 @@
         <v>0.023</v>
       </c>
       <c r="G99" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>11</v>
       </c>
-      <c r="B100" t="s">
-        <v>14</v>
+      <c r="B100">
+        <v>40000</v>
       </c>
       <c r="C100">
         <v>0.05</v>
@@ -2767,15 +2755,15 @@
         <v>0.05133333333</v>
       </c>
       <c r="G100" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>11</v>
       </c>
-      <c r="B101" t="s">
-        <v>15</v>
+      <c r="B101">
+        <v>80000</v>
       </c>
       <c r="C101">
         <v>0.108</v>
@@ -2790,15 +2778,15 @@
         <v>0.103</v>
       </c>
       <c r="G101" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>7</v>
       </c>
-      <c r="B102" t="s">
-        <v>12</v>
+      <c r="B102">
+        <v>10000</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2813,15 +2801,15 @@
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>7</v>
       </c>
-      <c r="B103" t="s">
-        <v>13</v>
+      <c r="B103">
+        <v>20000</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2836,15 +2824,15 @@
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>7</v>
       </c>
-      <c r="B104" t="s">
-        <v>14</v>
+      <c r="B104">
+        <v>40000</v>
       </c>
       <c r="C104">
         <v>0.001</v>
@@ -2859,15 +2847,15 @@
         <v>0.001</v>
       </c>
       <c r="G104" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>7</v>
       </c>
-      <c r="B105" t="s">
-        <v>15</v>
+      <c r="B105">
+        <v>80000</v>
       </c>
       <c r="C105">
         <v>0.003</v>
@@ -2882,15 +2870,15 @@
         <v>0.002666666667</v>
       </c>
       <c r="G105" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>8</v>
       </c>
-      <c r="B106" t="s">
-        <v>12</v>
+      <c r="B106">
+        <v>10000</v>
       </c>
       <c r="C106">
         <v>0.001</v>
@@ -2905,15 +2893,15 @@
         <v>0.001</v>
       </c>
       <c r="G106" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>8</v>
       </c>
-      <c r="B107" t="s">
-        <v>13</v>
+      <c r="B107">
+        <v>20000</v>
       </c>
       <c r="C107">
         <v>0.002</v>
@@ -2928,15 +2916,15 @@
         <v>0.002</v>
       </c>
       <c r="G107" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>8</v>
       </c>
-      <c r="B108" t="s">
-        <v>14</v>
+      <c r="B108">
+        <v>40000</v>
       </c>
       <c r="C108">
         <v>0.003</v>
@@ -2951,15 +2939,15 @@
         <v>0.003666666667</v>
       </c>
       <c r="G108" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>8</v>
       </c>
-      <c r="B109" t="s">
-        <v>15</v>
+      <c r="B109">
+        <v>80000</v>
       </c>
       <c r="C109">
         <v>0.008</v>
@@ -2974,15 +2962,15 @@
         <v>0.008</v>
       </c>
       <c r="G109" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>9</v>
       </c>
-      <c r="B110" t="s">
-        <v>12</v>
+      <c r="B110">
+        <v>10000</v>
       </c>
       <c r="C110">
         <v>0.001</v>
@@ -2997,15 +2985,15 @@
         <v>0.001</v>
       </c>
       <c r="G110" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>9</v>
       </c>
-      <c r="B111" t="s">
-        <v>13</v>
+      <c r="B111">
+        <v>20000</v>
       </c>
       <c r="C111">
         <v>0.002</v>
@@ -3020,15 +3008,15 @@
         <v>0.002</v>
       </c>
       <c r="G111" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>9</v>
       </c>
-      <c r="B112" t="s">
-        <v>14</v>
+      <c r="B112">
+        <v>40000</v>
       </c>
       <c r="C112">
         <v>0.004</v>
@@ -3043,15 +3031,15 @@
         <v>0.003666666667</v>
       </c>
       <c r="G112" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>9</v>
       </c>
-      <c r="B113" t="s">
-        <v>15</v>
+      <c r="B113">
+        <v>80000</v>
       </c>
       <c r="C113">
         <v>0.007</v>
@@ -3066,15 +3054,15 @@
         <v>0.007666666667</v>
       </c>
       <c r="G113" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>10</v>
       </c>
-      <c r="B114" t="s">
-        <v>12</v>
+      <c r="B114">
+        <v>10000</v>
       </c>
       <c r="C114">
         <v>0.001</v>
@@ -3089,15 +3077,15 @@
         <v>0.001</v>
       </c>
       <c r="G114" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>10</v>
       </c>
-      <c r="B115" t="s">
-        <v>13</v>
+      <c r="B115">
+        <v>20000</v>
       </c>
       <c r="C115">
         <v>0.002</v>
@@ -3112,15 +3100,15 @@
         <v>0.002</v>
       </c>
       <c r="G115" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>10</v>
       </c>
-      <c r="B116" t="s">
-        <v>14</v>
+      <c r="B116">
+        <v>40000</v>
       </c>
       <c r="C116">
         <v>0.004</v>
@@ -3135,15 +3123,15 @@
         <v>0.004</v>
       </c>
       <c r="G116" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>10</v>
       </c>
-      <c r="B117" t="s">
-        <v>15</v>
+      <c r="B117">
+        <v>80000</v>
       </c>
       <c r="C117">
         <v>0.007</v>
@@ -3158,15 +3146,15 @@
         <v>0.007333333333</v>
       </c>
       <c r="G117" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>11</v>
       </c>
-      <c r="B118" t="s">
-        <v>12</v>
+      <c r="B118">
+        <v>10000</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -3181,15 +3169,15 @@
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>11</v>
       </c>
-      <c r="B119" t="s">
-        <v>13</v>
+      <c r="B119">
+        <v>20000</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -3204,15 +3192,15 @@
         <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>11</v>
       </c>
-      <c r="B120" t="s">
-        <v>14</v>
+      <c r="B120">
+        <v>40000</v>
       </c>
       <c r="C120">
         <v>0.001</v>
@@ -3227,15 +3215,15 @@
         <v>0.001</v>
       </c>
       <c r="G120" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>11</v>
       </c>
-      <c r="B121" t="s">
-        <v>15</v>
+      <c r="B121">
+        <v>80000</v>
       </c>
       <c r="C121">
         <v>0.003</v>
@@ -3250,15 +3238,15 @@
         <v>0.003</v>
       </c>
       <c r="G121" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>7</v>
       </c>
-      <c r="B122" t="s">
-        <v>12</v>
+      <c r="B122">
+        <v>10000</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -3273,15 +3261,15 @@
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>7</v>
       </c>
-      <c r="B123" t="s">
-        <v>13</v>
+      <c r="B123">
+        <v>20000</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -3296,15 +3284,15 @@
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>7</v>
       </c>
-      <c r="B124" t="s">
-        <v>14</v>
+      <c r="B124">
+        <v>40000</v>
       </c>
       <c r="C124">
         <v>0.001</v>
@@ -3319,15 +3307,15 @@
         <v>0.001333333333</v>
       </c>
       <c r="G124" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>7</v>
       </c>
-      <c r="B125" t="s">
-        <v>15</v>
+      <c r="B125">
+        <v>80000</v>
       </c>
       <c r="C125">
         <v>0.003</v>
@@ -3342,15 +3330,15 @@
         <v>0.003</v>
       </c>
       <c r="G125" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>8</v>
       </c>
-      <c r="B126" t="s">
-        <v>12</v>
+      <c r="B126">
+        <v>10000</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -3365,15 +3353,15 @@
         <v>0.0003333333333</v>
       </c>
       <c r="G126" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>8</v>
       </c>
-      <c r="B127" t="s">
-        <v>13</v>
+      <c r="B127">
+        <v>20000</v>
       </c>
       <c r="C127">
         <v>0.002</v>
@@ -3388,15 +3376,15 @@
         <v>0.002</v>
       </c>
       <c r="G127" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>8</v>
       </c>
-      <c r="B128" t="s">
-        <v>14</v>
+      <c r="B128">
+        <v>40000</v>
       </c>
       <c r="C128">
         <v>0.004</v>
@@ -3411,15 +3399,15 @@
         <v>0.004</v>
       </c>
       <c r="G128" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>8</v>
       </c>
-      <c r="B129" t="s">
-        <v>15</v>
+      <c r="B129">
+        <v>80000</v>
       </c>
       <c r="C129">
         <v>0.008</v>
@@ -3434,15 +3422,15 @@
         <v>0.007333333333</v>
       </c>
       <c r="G129" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>9</v>
       </c>
-      <c r="B130" t="s">
-        <v>12</v>
+      <c r="B130">
+        <v>10000</v>
       </c>
       <c r="C130">
         <v>0.001</v>
@@ -3457,15 +3445,15 @@
         <v>0.0006666666667</v>
       </c>
       <c r="G130" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>9</v>
       </c>
-      <c r="B131" t="s">
-        <v>13</v>
+      <c r="B131">
+        <v>20000</v>
       </c>
       <c r="C131">
         <v>0.002</v>
@@ -3480,15 +3468,15 @@
         <v>0.001666666667</v>
       </c>
       <c r="G131" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>9</v>
       </c>
-      <c r="B132" t="s">
-        <v>14</v>
+      <c r="B132">
+        <v>40000</v>
       </c>
       <c r="C132">
         <v>0.003</v>
@@ -3503,15 +3491,15 @@
         <v>0.003</v>
       </c>
       <c r="G132" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>9</v>
       </c>
-      <c r="B133" t="s">
-        <v>15</v>
+      <c r="B133">
+        <v>80000</v>
       </c>
       <c r="C133">
         <v>0.006</v>
@@ -3526,15 +3514,15 @@
         <v>0.006666666667</v>
       </c>
       <c r="G133" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>10</v>
       </c>
-      <c r="B134" t="s">
-        <v>12</v>
+      <c r="B134">
+        <v>10000</v>
       </c>
       <c r="C134">
         <v>0.001</v>
@@ -3549,15 +3537,15 @@
         <v>0.001</v>
       </c>
       <c r="G134" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>10</v>
       </c>
-      <c r="B135" t="s">
-        <v>13</v>
+      <c r="B135">
+        <v>20000</v>
       </c>
       <c r="C135">
         <v>0.002</v>
@@ -3572,15 +3560,15 @@
         <v>0.001666666667</v>
       </c>
       <c r="G135" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>10</v>
       </c>
-      <c r="B136" t="s">
-        <v>14</v>
+      <c r="B136">
+        <v>40000</v>
       </c>
       <c r="C136">
         <v>0.003</v>
@@ -3595,15 +3583,15 @@
         <v>0.003333333333</v>
       </c>
       <c r="G136" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>10</v>
       </c>
-      <c r="B137" t="s">
-        <v>15</v>
+      <c r="B137">
+        <v>80000</v>
       </c>
       <c r="C137">
         <v>0.007</v>
@@ -3618,15 +3606,15 @@
         <v>0.007</v>
       </c>
       <c r="G137" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>11</v>
       </c>
-      <c r="B138" t="s">
-        <v>12</v>
+      <c r="B138">
+        <v>10000</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -3641,15 +3629,15 @@
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>11</v>
       </c>
-      <c r="B139" t="s">
-        <v>13</v>
+      <c r="B139">
+        <v>20000</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -3664,15 +3652,15 @@
         <v>0.0003333333333</v>
       </c>
       <c r="G139" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>11</v>
       </c>
-      <c r="B140" t="s">
-        <v>14</v>
+      <c r="B140">
+        <v>40000</v>
       </c>
       <c r="C140">
         <v>0.002</v>
@@ -3687,15 +3675,15 @@
         <v>0.001666666667</v>
       </c>
       <c r="G140" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>11</v>
       </c>
-      <c r="B141" t="s">
-        <v>15</v>
+      <c r="B141">
+        <v>80000</v>
       </c>
       <c r="C141">
         <v>0.003</v>
@@ -3710,15 +3698,15 @@
         <v>0.003</v>
       </c>
       <c r="G141" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>7</v>
       </c>
-      <c r="B142" t="s">
-        <v>12</v>
+      <c r="B142">
+        <v>10000</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -3733,15 +3721,15 @@
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>7</v>
       </c>
-      <c r="B143" t="s">
-        <v>13</v>
+      <c r="B143">
+        <v>20000</v>
       </c>
       <c r="C143">
         <v>0.001</v>
@@ -3756,15 +3744,15 @@
         <v>0.0006666666667</v>
       </c>
       <c r="G143" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>7</v>
       </c>
-      <c r="B144" t="s">
-        <v>14</v>
+      <c r="B144">
+        <v>40000</v>
       </c>
       <c r="C144">
         <v>0.001</v>
@@ -3779,15 +3767,15 @@
         <v>0.001333333333</v>
       </c>
       <c r="G144" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>7</v>
       </c>
-      <c r="B145" t="s">
-        <v>15</v>
+      <c r="B145">
+        <v>80000</v>
       </c>
       <c r="C145">
         <v>0.003</v>
@@ -3802,15 +3790,15 @@
         <v>0.003333333333</v>
       </c>
       <c r="G145" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>8</v>
       </c>
-      <c r="B146" t="s">
-        <v>12</v>
+      <c r="B146">
+        <v>10000</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -3825,15 +3813,15 @@
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>8</v>
       </c>
-      <c r="B147" t="s">
-        <v>13</v>
+      <c r="B147">
+        <v>20000</v>
       </c>
       <c r="C147">
         <v>0.001</v>
@@ -3848,15 +3836,15 @@
         <v>0.001</v>
       </c>
       <c r="G147" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>8</v>
       </c>
-      <c r="B148" t="s">
-        <v>14</v>
+      <c r="B148">
+        <v>40000</v>
       </c>
       <c r="C148">
         <v>0.003</v>
@@ -3871,15 +3859,15 @@
         <v>0.003</v>
       </c>
       <c r="G148" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>8</v>
       </c>
-      <c r="B149" t="s">
-        <v>15</v>
+      <c r="B149">
+        <v>80000</v>
       </c>
       <c r="C149">
         <v>0.007</v>
@@ -3894,15 +3882,15 @@
         <v>0.006666666667</v>
       </c>
       <c r="G149" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>9</v>
       </c>
-      <c r="B150" t="s">
-        <v>12</v>
+      <c r="B150">
+        <v>10000</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -3917,15 +3905,15 @@
         <v>0.0003333333333</v>
       </c>
       <c r="G150" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>9</v>
       </c>
-      <c r="B151" t="s">
-        <v>13</v>
+      <c r="B151">
+        <v>20000</v>
       </c>
       <c r="C151">
         <v>0.001</v>
@@ -3940,15 +3928,15 @@
         <v>0.001333333333</v>
       </c>
       <c r="G151" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>9</v>
       </c>
-      <c r="B152" t="s">
-        <v>14</v>
+      <c r="B152">
+        <v>40000</v>
       </c>
       <c r="C152">
         <v>0.003</v>
@@ -3963,15 +3951,15 @@
         <v>0.003</v>
       </c>
       <c r="G152" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>9</v>
       </c>
-      <c r="B153" t="s">
-        <v>15</v>
+      <c r="B153">
+        <v>80000</v>
       </c>
       <c r="C153">
         <v>0.007</v>
@@ -3986,15 +3974,15 @@
         <v>0.007</v>
       </c>
       <c r="G153" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>10</v>
       </c>
-      <c r="B154" t="s">
-        <v>12</v>
+      <c r="B154">
+        <v>10000</v>
       </c>
       <c r="C154">
         <v>0.001</v>
@@ -4009,15 +3997,15 @@
         <v>0.0006666666667</v>
       </c>
       <c r="G154" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>10</v>
       </c>
-      <c r="B155" t="s">
-        <v>13</v>
+      <c r="B155">
+        <v>20000</v>
       </c>
       <c r="C155">
         <v>0.001</v>
@@ -4032,15 +4020,15 @@
         <v>0.001666666667</v>
       </c>
       <c r="G155" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>10</v>
       </c>
-      <c r="B156" t="s">
-        <v>14</v>
+      <c r="B156">
+        <v>40000</v>
       </c>
       <c r="C156">
         <v>0.004</v>
@@ -4055,15 +4043,15 @@
         <v>0.003333333333</v>
       </c>
       <c r="G156" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>10</v>
       </c>
-      <c r="B157" t="s">
-        <v>15</v>
+      <c r="B157">
+        <v>80000</v>
       </c>
       <c r="C157">
         <v>0.01</v>
@@ -4078,15 +4066,15 @@
         <v>0.008333333332999999</v>
       </c>
       <c r="G157" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>11</v>
       </c>
-      <c r="B158" t="s">
-        <v>12</v>
+      <c r="B158">
+        <v>10000</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -4101,15 +4089,15 @@
         <v>0.0003333333333</v>
       </c>
       <c r="G158" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>11</v>
       </c>
-      <c r="B159" t="s">
-        <v>13</v>
+      <c r="B159">
+        <v>20000</v>
       </c>
       <c r="C159">
         <v>0.001</v>
@@ -4124,15 +4112,15 @@
         <v>0.001</v>
       </c>
       <c r="G159" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
         <v>11</v>
       </c>
-      <c r="B160" t="s">
-        <v>14</v>
+      <c r="B160">
+        <v>40000</v>
       </c>
       <c r="C160">
         <v>0.002</v>
@@ -4147,15 +4135,15 @@
         <v>0.002</v>
       </c>
       <c r="G160" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
         <v>11</v>
       </c>
-      <c r="B161" t="s">
-        <v>15</v>
+      <c r="B161">
+        <v>80000</v>
       </c>
       <c r="C161">
         <v>0.004</v>
@@ -4170,15 +4158,15 @@
         <v>0.004</v>
       </c>
       <c r="G161" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
         <v>7</v>
       </c>
-      <c r="B162" t="s">
-        <v>12</v>
+      <c r="B162">
+        <v>10000</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -4193,15 +4181,15 @@
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
         <v>7</v>
       </c>
-      <c r="B163" t="s">
-        <v>13</v>
+      <c r="B163">
+        <v>20000</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -4216,15 +4204,15 @@
         <v>0</v>
       </c>
       <c r="G163" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
         <v>7</v>
       </c>
-      <c r="B164" t="s">
-        <v>14</v>
+      <c r="B164">
+        <v>40000</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -4239,15 +4227,15 @@
         <v>0</v>
       </c>
       <c r="G164" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>7</v>
       </c>
-      <c r="B165" t="s">
-        <v>15</v>
+      <c r="B165">
+        <v>80000</v>
       </c>
       <c r="C165">
         <v>0.001</v>
@@ -4262,15 +4250,15 @@
         <v>0.0006666666667</v>
       </c>
       <c r="G165" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
         <v>8</v>
       </c>
-      <c r="B166" t="s">
-        <v>12</v>
+      <c r="B166">
+        <v>10000</v>
       </c>
       <c r="C166">
         <v>0.889</v>
@@ -4285,15 +4273,15 @@
         <v>0.8366666667</v>
       </c>
       <c r="G166" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
         <v>8</v>
       </c>
-      <c r="B167" t="s">
-        <v>13</v>
+      <c r="B167">
+        <v>20000</v>
       </c>
       <c r="C167">
         <v>3.381</v>
@@ -4308,15 +4296,15 @@
         <v>3.356</v>
       </c>
       <c r="G167" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
         <v>8</v>
       </c>
-      <c r="B168" t="s">
-        <v>14</v>
+      <c r="B168">
+        <v>40000</v>
       </c>
       <c r="C168">
         <v>14.168</v>
@@ -4331,15 +4319,15 @@
         <v>13.957</v>
       </c>
       <c r="G168" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
         <v>8</v>
       </c>
-      <c r="B169" t="s">
-        <v>15</v>
+      <c r="B169">
+        <v>80000</v>
       </c>
       <c r="C169">
         <v>60.121</v>
@@ -4354,15 +4342,15 @@
         <v>61.41233333</v>
       </c>
       <c r="G169" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
         <v>9</v>
       </c>
-      <c r="B170" t="s">
-        <v>12</v>
+      <c r="B170">
+        <v>10000</v>
       </c>
       <c r="C170">
         <v>0.82</v>
@@ -4377,15 +4365,15 @@
         <v>0.8183333333</v>
       </c>
       <c r="G170" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
         <v>9</v>
       </c>
-      <c r="B171" t="s">
-        <v>13</v>
+      <c r="B171">
+        <v>20000</v>
       </c>
       <c r="C171">
         <v>3.286</v>
@@ -4400,15 +4388,15 @@
         <v>3.249666667</v>
       </c>
       <c r="G171" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" t="s">
         <v>9</v>
       </c>
-      <c r="B172" t="s">
-        <v>14</v>
+      <c r="B172">
+        <v>40000</v>
       </c>
       <c r="C172">
         <v>14.212</v>
@@ -4423,15 +4411,15 @@
         <v>14.032</v>
       </c>
       <c r="G172" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
         <v>9</v>
       </c>
-      <c r="B173" t="s">
-        <v>15</v>
+      <c r="B173">
+        <v>80000</v>
       </c>
       <c r="C173">
         <v>62.938</v>
@@ -4446,15 +4434,15 @@
         <v>64.35866667000001</v>
       </c>
       <c r="G173" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
         <v>10</v>
       </c>
-      <c r="B174" t="s">
-        <v>12</v>
+      <c r="B174">
+        <v>10000</v>
       </c>
       <c r="C174">
         <v>0.8179999999999999</v>
@@ -4469,15 +4457,15 @@
         <v>0.8073333333</v>
       </c>
       <c r="G174" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
         <v>10</v>
       </c>
-      <c r="B175" t="s">
-        <v>13</v>
+      <c r="B175">
+        <v>20000</v>
       </c>
       <c r="C175">
         <v>3.364</v>
@@ -4492,15 +4480,15 @@
         <v>3.382666667</v>
       </c>
       <c r="G175" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
         <v>10</v>
       </c>
-      <c r="B176" t="s">
-        <v>14</v>
+      <c r="B176">
+        <v>40000</v>
       </c>
       <c r="C176">
         <v>14.042</v>
@@ -4515,15 +4503,15 @@
         <v>13.84066667</v>
       </c>
       <c r="G176" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
         <v>10</v>
       </c>
-      <c r="B177" t="s">
-        <v>15</v>
+      <c r="B177">
+        <v>80000</v>
       </c>
       <c r="C177">
         <v>60.782</v>
@@ -4538,15 +4526,15 @@
         <v>61.83666667</v>
       </c>
       <c r="G177" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
         <v>11</v>
       </c>
-      <c r="B178" t="s">
-        <v>12</v>
+      <c r="B178">
+        <v>10000</v>
       </c>
       <c r="C178">
         <v>1.738</v>
@@ -4561,15 +4549,15 @@
         <v>1.743</v>
       </c>
       <c r="G178" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
         <v>11</v>
       </c>
-      <c r="B179" t="s">
-        <v>13</v>
+      <c r="B179">
+        <v>20000</v>
       </c>
       <c r="C179">
         <v>6.897</v>
@@ -4584,15 +4572,15 @@
         <v>6.917333333</v>
       </c>
       <c r="G179" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
         <v>11</v>
       </c>
-      <c r="B180" t="s">
-        <v>14</v>
+      <c r="B180">
+        <v>40000</v>
       </c>
       <c r="C180">
         <v>27.906</v>
@@ -4607,15 +4595,15 @@
         <v>28.14133333</v>
       </c>
       <c r="G180" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
         <v>11</v>
       </c>
-      <c r="B181" t="s">
-        <v>15</v>
+      <c r="B181">
+        <v>80000</v>
       </c>
       <c r="C181">
         <v>94.428</v>
@@ -4630,15 +4618,15 @@
         <v>94.56699999999999</v>
       </c>
       <c r="G181" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
         <v>7</v>
       </c>
-      <c r="B182" t="s">
-        <v>12</v>
+      <c r="B182">
+        <v>10000</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -4653,15 +4641,15 @@
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
         <v>7</v>
       </c>
-      <c r="B183" t="s">
-        <v>13</v>
+      <c r="B183">
+        <v>20000</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -4676,15 +4664,15 @@
         <v>0</v>
       </c>
       <c r="G183" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
         <v>7</v>
       </c>
-      <c r="B184" t="s">
-        <v>14</v>
+      <c r="B184">
+        <v>40000</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -4699,15 +4687,15 @@
         <v>0</v>
       </c>
       <c r="G184" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
         <v>7</v>
       </c>
-      <c r="B185" t="s">
-        <v>15</v>
+      <c r="B185">
+        <v>80000</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -4722,15 +4710,15 @@
         <v>0</v>
       </c>
       <c r="G185" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
         <v>8</v>
       </c>
-      <c r="B186" t="s">
-        <v>12</v>
+      <c r="B186">
+        <v>10000</v>
       </c>
       <c r="C186">
         <v>0.906</v>
@@ -4745,15 +4733,15 @@
         <v>0.9073333333</v>
       </c>
       <c r="G186" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
         <v>8</v>
       </c>
-      <c r="B187" t="s">
-        <v>13</v>
+      <c r="B187">
+        <v>20000</v>
       </c>
       <c r="C187">
         <v>3.64</v>
@@ -4768,15 +4756,15 @@
         <v>3.670333333</v>
       </c>
       <c r="G187" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
         <v>8</v>
       </c>
-      <c r="B188" t="s">
-        <v>14</v>
+      <c r="B188">
+        <v>40000</v>
       </c>
       <c r="C188">
         <v>16.343</v>
@@ -4791,15 +4779,15 @@
         <v>15.995</v>
       </c>
       <c r="G188" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
         <v>8</v>
       </c>
-      <c r="B189" t="s">
-        <v>15</v>
+      <c r="B189">
+        <v>80000</v>
       </c>
       <c r="C189">
         <v>61.816</v>
@@ -4814,15 +4802,15 @@
         <v>62.15966667</v>
       </c>
       <c r="G189" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
         <v>9</v>
       </c>
-      <c r="B190" t="s">
-        <v>12</v>
+      <c r="B190">
+        <v>10000</v>
       </c>
       <c r="C190">
         <v>0.902</v>
@@ -4837,15 +4825,15 @@
         <v>0.905</v>
       </c>
       <c r="G190" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
         <v>9</v>
       </c>
-      <c r="B191" t="s">
-        <v>13</v>
+      <c r="B191">
+        <v>20000</v>
       </c>
       <c r="C191">
         <v>3.695</v>
@@ -4860,15 +4848,15 @@
         <v>3.693666667</v>
       </c>
       <c r="G191" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
         <v>9</v>
       </c>
-      <c r="B192" t="s">
-        <v>14</v>
+      <c r="B192">
+        <v>40000</v>
       </c>
       <c r="C192">
         <v>15.005</v>
@@ -4883,15 +4871,15 @@
         <v>15.08766667</v>
       </c>
       <c r="G192" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
         <v>9</v>
       </c>
-      <c r="B193" t="s">
-        <v>15</v>
+      <c r="B193">
+        <v>80000</v>
       </c>
       <c r="C193">
         <v>62.093</v>
@@ -4906,15 +4894,15 @@
         <v>61.83333333</v>
       </c>
       <c r="G193" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
         <v>10</v>
       </c>
-      <c r="B194" t="s">
-        <v>12</v>
+      <c r="B194">
+        <v>10000</v>
       </c>
       <c r="C194">
         <v>0.944</v>
@@ -4929,15 +4917,15 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="G194" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
         <v>10</v>
       </c>
-      <c r="B195" t="s">
-        <v>13</v>
+      <c r="B195">
+        <v>20000</v>
       </c>
       <c r="C195">
         <v>3.645</v>
@@ -4952,15 +4940,15 @@
         <v>3.683333333</v>
       </c>
       <c r="G195" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
         <v>10</v>
       </c>
-      <c r="B196" t="s">
-        <v>14</v>
+      <c r="B196">
+        <v>40000</v>
       </c>
       <c r="C196">
         <v>14.905</v>
@@ -4975,15 +4963,15 @@
         <v>14.907</v>
       </c>
       <c r="G196" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
         <v>10</v>
       </c>
-      <c r="B197" t="s">
-        <v>15</v>
+      <c r="B197">
+        <v>80000</v>
       </c>
       <c r="C197">
         <v>61.594</v>
@@ -4998,15 +4986,15 @@
         <v>61.64933333</v>
       </c>
       <c r="G197" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
         <v>11</v>
       </c>
-      <c r="B198" t="s">
-        <v>12</v>
+      <c r="B198">
+        <v>10000</v>
       </c>
       <c r="C198">
         <v>1.505</v>
@@ -5021,15 +5009,15 @@
         <v>1.501333333</v>
       </c>
       <c r="G198" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
         <v>11</v>
       </c>
-      <c r="B199" t="s">
-        <v>13</v>
+      <c r="B199">
+        <v>20000</v>
       </c>
       <c r="C199">
         <v>6.021</v>
@@ -5044,15 +5032,15 @@
         <v>6.104333333</v>
       </c>
       <c r="G199" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
         <v>11</v>
       </c>
-      <c r="B200" t="s">
-        <v>14</v>
+      <c r="B200">
+        <v>40000</v>
       </c>
       <c r="C200">
         <v>23.787</v>
@@ -5067,15 +5055,15 @@
         <v>23.87433333</v>
       </c>
       <c r="G200" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
         <v>11</v>
       </c>
-      <c r="B201" t="s">
-        <v>15</v>
+      <c r="B201">
+        <v>80000</v>
       </c>
       <c r="C201">
         <v>95.163</v>
@@ -5090,15 +5078,15 @@
         <v>95.15000000000001</v>
       </c>
       <c r="G201" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
         <v>7</v>
       </c>
-      <c r="B202" t="s">
-        <v>12</v>
+      <c r="B202">
+        <v>10000</v>
       </c>
       <c r="C202">
         <v>0.073</v>
@@ -5113,15 +5101,15 @@
         <v>0.07366666667000001</v>
       </c>
       <c r="G202" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
         <v>7</v>
       </c>
-      <c r="B203" t="s">
-        <v>13</v>
+      <c r="B203">
+        <v>20000</v>
       </c>
       <c r="C203">
         <v>0.287</v>
@@ -5136,15 +5124,15 @@
         <v>0.29</v>
       </c>
       <c r="G203" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
         <v>7</v>
       </c>
-      <c r="B204" t="s">
-        <v>14</v>
+      <c r="B204">
+        <v>40000</v>
       </c>
       <c r="C204">
         <v>1.121</v>
@@ -5159,15 +5147,15 @@
         <v>1.128666667</v>
       </c>
       <c r="G204" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" t="s">
         <v>7</v>
       </c>
-      <c r="B205" t="s">
-        <v>15</v>
+      <c r="B205">
+        <v>80000</v>
       </c>
       <c r="C205">
         <v>4.489</v>
@@ -5182,15 +5170,15 @@
         <v>4.509666667</v>
       </c>
       <c r="G205" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" t="s">
         <v>8</v>
       </c>
-      <c r="B206" t="s">
-        <v>12</v>
+      <c r="B206">
+        <v>10000</v>
       </c>
       <c r="C206">
         <v>0.074</v>
@@ -5205,15 +5193,15 @@
         <v>0.074</v>
       </c>
       <c r="G206" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
         <v>8</v>
       </c>
-      <c r="B207" t="s">
-        <v>13</v>
+      <c r="B207">
+        <v>20000</v>
       </c>
       <c r="C207">
         <v>0.287</v>
@@ -5228,15 +5216,15 @@
         <v>0.291</v>
       </c>
       <c r="G207" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
         <v>8</v>
       </c>
-      <c r="B208" t="s">
-        <v>14</v>
+      <c r="B208">
+        <v>40000</v>
       </c>
       <c r="C208">
         <v>1.142</v>
@@ -5251,15 +5239,15 @@
         <v>1.150333333</v>
       </c>
       <c r="G208" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
         <v>8</v>
       </c>
-      <c r="B209" t="s">
-        <v>15</v>
+      <c r="B209">
+        <v>80000</v>
       </c>
       <c r="C209">
         <v>4.377</v>
@@ -5274,15 +5262,15 @@
         <v>4.377333333</v>
       </c>
       <c r="G209" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
         <v>9</v>
       </c>
-      <c r="B210" t="s">
-        <v>12</v>
+      <c r="B210">
+        <v>10000</v>
       </c>
       <c r="C210">
         <v>0.075</v>
@@ -5297,15 +5285,15 @@
         <v>0.07366666667000001</v>
       </c>
       <c r="G210" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
         <v>9</v>
       </c>
-      <c r="B211" t="s">
-        <v>13</v>
+      <c r="B211">
+        <v>20000</v>
       </c>
       <c r="C211">
         <v>0.288</v>
@@ -5320,15 +5308,15 @@
         <v>0.286</v>
       </c>
       <c r="G211" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" t="s">
         <v>9</v>
       </c>
-      <c r="B212" t="s">
-        <v>14</v>
+      <c r="B212">
+        <v>40000</v>
       </c>
       <c r="C212">
         <v>1.14</v>
@@ -5343,15 +5331,15 @@
         <v>1.138666667</v>
       </c>
       <c r="G212" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="s">
         <v>9</v>
       </c>
-      <c r="B213" t="s">
-        <v>15</v>
+      <c r="B213">
+        <v>80000</v>
       </c>
       <c r="C213">
         <v>4.378</v>
@@ -5366,15 +5354,15 @@
         <v>4.376666667</v>
       </c>
       <c r="G213" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" t="s">
         <v>10</v>
       </c>
-      <c r="B214" t="s">
-        <v>12</v>
+      <c r="B214">
+        <v>10000</v>
       </c>
       <c r="C214">
         <v>0.073</v>
@@ -5389,15 +5377,15 @@
         <v>0.074</v>
       </c>
       <c r="G214" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
         <v>10</v>
       </c>
-      <c r="B215" t="s">
-        <v>13</v>
+      <c r="B215">
+        <v>20000</v>
       </c>
       <c r="C215">
         <v>0.285</v>
@@ -5412,15 +5400,15 @@
         <v>0.287</v>
       </c>
       <c r="G215" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
         <v>10</v>
       </c>
-      <c r="B216" t="s">
-        <v>14</v>
+      <c r="B216">
+        <v>40000</v>
       </c>
       <c r="C216">
         <v>1.128</v>
@@ -5435,15 +5423,15 @@
         <v>1.124666667</v>
       </c>
       <c r="G216" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
         <v>10</v>
       </c>
-      <c r="B217" t="s">
-        <v>15</v>
+      <c r="B217">
+        <v>80000</v>
       </c>
       <c r="C217">
         <v>4.382</v>
@@ -5458,15 +5446,15 @@
         <v>4.371333333</v>
       </c>
       <c r="G217" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
         <v>11</v>
       </c>
-      <c r="B218" t="s">
-        <v>12</v>
+      <c r="B218">
+        <v>10000</v>
       </c>
       <c r="C218">
         <v>0.07099999999999999</v>
@@ -5481,15 +5469,15 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G218" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
         <v>11</v>
       </c>
-      <c r="B219" t="s">
-        <v>13</v>
+      <c r="B219">
+        <v>20000</v>
       </c>
       <c r="C219">
         <v>0.272</v>
@@ -5504,15 +5492,15 @@
         <v>0.274</v>
       </c>
       <c r="G219" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
         <v>11</v>
       </c>
-      <c r="B220" t="s">
-        <v>14</v>
+      <c r="B220">
+        <v>40000</v>
       </c>
       <c r="C220">
         <v>1.079</v>
@@ -5527,15 +5515,15 @@
         <v>1.076</v>
       </c>
       <c r="G220" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
         <v>11</v>
       </c>
-      <c r="B221" t="s">
-        <v>15</v>
+      <c r="B221">
+        <v>80000</v>
       </c>
       <c r="C221">
         <v>4.171</v>
@@ -5550,15 +5538,15 @@
         <v>4.217333333</v>
       </c>
       <c r="G221" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
         <v>7</v>
       </c>
-      <c r="B222" t="s">
-        <v>12</v>
+      <c r="B222">
+        <v>10000</v>
       </c>
       <c r="C222">
         <v>0.005</v>
@@ -5573,15 +5561,15 @@
         <v>0.005333333333</v>
       </c>
       <c r="G222" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
         <v>7</v>
       </c>
-      <c r="B223" t="s">
-        <v>13</v>
+      <c r="B223">
+        <v>20000</v>
       </c>
       <c r="C223">
         <v>0.01</v>
@@ -5596,15 +5584,15 @@
         <v>0.01033333333</v>
       </c>
       <c r="G223" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
         <v>7</v>
       </c>
-      <c r="B224" t="s">
-        <v>14</v>
+      <c r="B224">
+        <v>40000</v>
       </c>
       <c r="C224">
         <v>0.022</v>
@@ -5619,15 +5607,15 @@
         <v>0.022</v>
       </c>
       <c r="G224" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" t="s">
         <v>7</v>
       </c>
-      <c r="B225" t="s">
-        <v>15</v>
+      <c r="B225">
+        <v>80000</v>
       </c>
       <c r="C225">
         <v>0.048</v>
@@ -5642,15 +5630,15 @@
         <v>0.04733333333</v>
       </c>
       <c r="G225" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
         <v>8</v>
       </c>
-      <c r="B226" t="s">
-        <v>12</v>
+      <c r="B226">
+        <v>10000</v>
       </c>
       <c r="C226">
         <v>0.005</v>
@@ -5665,15 +5653,15 @@
         <v>0.005</v>
       </c>
       <c r="G226" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
         <v>8</v>
       </c>
-      <c r="B227" t="s">
-        <v>13</v>
+      <c r="B227">
+        <v>20000</v>
       </c>
       <c r="C227">
         <v>0.012</v>
@@ -5688,15 +5676,15 @@
         <v>0.01133333333</v>
       </c>
       <c r="G227" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" t="s">
         <v>8</v>
       </c>
-      <c r="B228" t="s">
-        <v>14</v>
+      <c r="B228">
+        <v>40000</v>
       </c>
       <c r="C228">
         <v>0.024</v>
@@ -5711,15 +5699,15 @@
         <v>0.024</v>
       </c>
       <c r="G228" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" t="s">
         <v>8</v>
       </c>
-      <c r="B229" t="s">
-        <v>15</v>
+      <c r="B229">
+        <v>80000</v>
       </c>
       <c r="C229">
         <v>0.048</v>
@@ -5734,15 +5722,15 @@
         <v>0.048</v>
       </c>
       <c r="G229" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" t="s">
         <v>9</v>
       </c>
-      <c r="B230" t="s">
-        <v>12</v>
+      <c r="B230">
+        <v>10000</v>
       </c>
       <c r="C230">
         <v>0.006</v>
@@ -5757,15 +5745,15 @@
         <v>0.005</v>
       </c>
       <c r="G230" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
         <v>9</v>
       </c>
-      <c r="B231" t="s">
-        <v>13</v>
+      <c r="B231">
+        <v>20000</v>
       </c>
       <c r="C231">
         <v>0.012</v>
@@ -5780,15 +5768,15 @@
         <v>0.01166666667</v>
       </c>
       <c r="G231" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" t="s">
         <v>9</v>
       </c>
-      <c r="B232" t="s">
-        <v>14</v>
+      <c r="B232">
+        <v>40000</v>
       </c>
       <c r="C232">
         <v>0.023</v>
@@ -5803,15 +5791,15 @@
         <v>0.02366666667</v>
       </c>
       <c r="G232" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" t="s">
         <v>9</v>
       </c>
-      <c r="B233" t="s">
-        <v>15</v>
+      <c r="B233">
+        <v>80000</v>
       </c>
       <c r="C233">
         <v>0.049</v>
@@ -5826,15 +5814,15 @@
         <v>0.048</v>
       </c>
       <c r="G233" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" t="s">
         <v>10</v>
       </c>
-      <c r="B234" t="s">
-        <v>12</v>
+      <c r="B234">
+        <v>10000</v>
       </c>
       <c r="C234">
         <v>0.005</v>
@@ -5849,15 +5837,15 @@
         <v>0.005</v>
       </c>
       <c r="G234" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" t="s">
         <v>10</v>
       </c>
-      <c r="B235" t="s">
-        <v>13</v>
+      <c r="B235">
+        <v>20000</v>
       </c>
       <c r="C235">
         <v>0.011</v>
@@ -5872,15 +5860,15 @@
         <v>0.01133333333</v>
       </c>
       <c r="G235" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" t="s">
         <v>10</v>
       </c>
-      <c r="B236" t="s">
-        <v>14</v>
+      <c r="B236">
+        <v>40000</v>
       </c>
       <c r="C236">
         <v>0.024</v>
@@ -5895,15 +5883,15 @@
         <v>0.02333333333</v>
       </c>
       <c r="G236" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" t="s">
         <v>10</v>
       </c>
-      <c r="B237" t="s">
-        <v>15</v>
+      <c r="B237">
+        <v>80000</v>
       </c>
       <c r="C237">
         <v>0.049</v>
@@ -5918,15 +5906,15 @@
         <v>0.04833333333</v>
       </c>
       <c r="G237" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" t="s">
         <v>11</v>
       </c>
-      <c r="B238" t="s">
-        <v>12</v>
+      <c r="B238">
+        <v>10000</v>
       </c>
       <c r="C238">
         <v>0.004</v>
@@ -5941,15 +5929,15 @@
         <v>0.004333333333</v>
       </c>
       <c r="G238" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" t="s">
         <v>11</v>
       </c>
-      <c r="B239" t="s">
-        <v>13</v>
+      <c r="B239">
+        <v>20000</v>
       </c>
       <c r="C239">
         <v>0.01</v>
@@ -5964,15 +5952,15 @@
         <v>0.01</v>
       </c>
       <c r="G239" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" t="s">
         <v>11</v>
       </c>
-      <c r="B240" t="s">
-        <v>14</v>
+      <c r="B240">
+        <v>40000</v>
       </c>
       <c r="C240">
         <v>0.021</v>
@@ -5987,15 +5975,15 @@
         <v>0.02066666667</v>
       </c>
       <c r="G240" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" t="s">
         <v>11</v>
       </c>
-      <c r="B241" t="s">
-        <v>15</v>
+      <c r="B241">
+        <v>80000</v>
       </c>
       <c r="C241">
         <v>0.043</v>
@@ -6010,15 +5998,15 @@
         <v>0.04266666667</v>
       </c>
       <c r="G241" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" t="s">
         <v>7</v>
       </c>
-      <c r="B242" t="s">
-        <v>12</v>
+      <c r="B242">
+        <v>10000</v>
       </c>
       <c r="C242">
         <v>0.003</v>
@@ -6033,15 +6021,15 @@
         <v>0.003</v>
       </c>
       <c r="G242" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
         <v>7</v>
       </c>
-      <c r="B243" t="s">
-        <v>13</v>
+      <c r="B243">
+        <v>20000</v>
       </c>
       <c r="C243">
         <v>0.006</v>
@@ -6056,15 +6044,15 @@
         <v>0.006666666667</v>
       </c>
       <c r="G243" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" t="s">
         <v>7</v>
       </c>
-      <c r="B244" t="s">
-        <v>14</v>
+      <c r="B244">
+        <v>40000</v>
       </c>
       <c r="C244">
         <v>0.016</v>
@@ -6079,15 +6067,15 @@
         <v>0.01566666667</v>
       </c>
       <c r="G244" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" t="s">
         <v>7</v>
       </c>
-      <c r="B245" t="s">
-        <v>15</v>
+      <c r="B245">
+        <v>80000</v>
       </c>
       <c r="C245">
         <v>0.03</v>
@@ -6102,15 +6090,15 @@
         <v>0.03033333333</v>
       </c>
       <c r="G245" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" t="s">
         <v>8</v>
       </c>
-      <c r="B246" t="s">
-        <v>12</v>
+      <c r="B246">
+        <v>10000</v>
       </c>
       <c r="C246">
         <v>0.003</v>
@@ -6125,15 +6113,15 @@
         <v>0.003666666667</v>
       </c>
       <c r="G246" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" t="s">
         <v>8</v>
       </c>
-      <c r="B247" t="s">
-        <v>13</v>
+      <c r="B247">
+        <v>20000</v>
       </c>
       <c r="C247">
         <v>0.007</v>
@@ -6148,15 +6136,15 @@
         <v>0.007666666667</v>
       </c>
       <c r="G247" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" t="s">
         <v>8</v>
       </c>
-      <c r="B248" t="s">
-        <v>14</v>
+      <c r="B248">
+        <v>40000</v>
       </c>
       <c r="C248">
         <v>0.018</v>
@@ -6171,15 +6159,15 @@
         <v>0.01766666667</v>
       </c>
       <c r="G248" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" t="s">
         <v>8</v>
       </c>
-      <c r="B249" t="s">
-        <v>15</v>
+      <c r="B249">
+        <v>80000</v>
       </c>
       <c r="C249">
         <v>0.034</v>
@@ -6194,15 +6182,15 @@
         <v>0.034</v>
       </c>
       <c r="G249" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" t="s">
         <v>9</v>
       </c>
-      <c r="B250" t="s">
-        <v>12</v>
+      <c r="B250">
+        <v>10000</v>
       </c>
       <c r="C250">
         <v>0.004</v>
@@ -6217,15 +6205,15 @@
         <v>0.004</v>
       </c>
       <c r="G250" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
         <v>9</v>
       </c>
-      <c r="B251" t="s">
-        <v>13</v>
+      <c r="B251">
+        <v>20000</v>
       </c>
       <c r="C251">
         <v>0.008</v>
@@ -6240,15 +6228,15 @@
         <v>0.007333333333</v>
       </c>
       <c r="G251" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
         <v>9</v>
       </c>
-      <c r="B252" t="s">
-        <v>14</v>
+      <c r="B252">
+        <v>40000</v>
       </c>
       <c r="C252">
         <v>0.016</v>
@@ -6263,15 +6251,15 @@
         <v>0.017</v>
       </c>
       <c r="G252" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" t="s">
         <v>9</v>
       </c>
-      <c r="B253" t="s">
-        <v>15</v>
+      <c r="B253">
+        <v>80000</v>
       </c>
       <c r="C253">
         <v>0.036</v>
@@ -6286,15 +6274,15 @@
         <v>0.035</v>
       </c>
       <c r="G253" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" t="s">
         <v>10</v>
       </c>
-      <c r="B254" t="s">
-        <v>12</v>
+      <c r="B254">
+        <v>10000</v>
       </c>
       <c r="C254">
         <v>0.004</v>
@@ -6309,15 +6297,15 @@
         <v>0.003666666667</v>
       </c>
       <c r="G254" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" t="s">
         <v>10</v>
       </c>
-      <c r="B255" t="s">
-        <v>13</v>
+      <c r="B255">
+        <v>20000</v>
       </c>
       <c r="C255">
         <v>0.007</v>
@@ -6332,15 +6320,15 @@
         <v>0.007666666667</v>
       </c>
       <c r="G255" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" t="s">
         <v>10</v>
       </c>
-      <c r="B256" t="s">
-        <v>14</v>
+      <c r="B256">
+        <v>40000</v>
       </c>
       <c r="C256">
         <v>0.015</v>
@@ -6355,15 +6343,15 @@
         <v>0.01533333333</v>
       </c>
       <c r="G256" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" t="s">
         <v>10</v>
       </c>
-      <c r="B257" t="s">
-        <v>15</v>
+      <c r="B257">
+        <v>80000</v>
       </c>
       <c r="C257">
         <v>0.035</v>
@@ -6378,15 +6366,15 @@
         <v>0.03533333333</v>
       </c>
       <c r="G257" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" t="s">
         <v>11</v>
       </c>
-      <c r="B258" t="s">
-        <v>12</v>
+      <c r="B258">
+        <v>10000</v>
       </c>
       <c r="C258">
         <v>0.004</v>
@@ -6401,15 +6389,15 @@
         <v>0.003333333333</v>
       </c>
       <c r="G258" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" t="s">
         <v>11</v>
       </c>
-      <c r="B259" t="s">
-        <v>13</v>
+      <c r="B259">
+        <v>20000</v>
       </c>
       <c r="C259">
         <v>0.007</v>
@@ -6424,15 +6412,15 @@
         <v>0.006666666667</v>
       </c>
       <c r="G259" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" t="s">
         <v>11</v>
       </c>
-      <c r="B260" t="s">
-        <v>14</v>
+      <c r="B260">
+        <v>40000</v>
       </c>
       <c r="C260">
         <v>0.014</v>
@@ -6447,15 +6435,15 @@
         <v>0.014</v>
       </c>
       <c r="G260" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" t="s">
         <v>11</v>
       </c>
-      <c r="B261" t="s">
-        <v>15</v>
+      <c r="B261">
+        <v>80000</v>
       </c>
       <c r="C261">
         <v>0.029</v>
@@ -6470,15 +6458,15 @@
         <v>0.02866666667</v>
       </c>
       <c r="G261" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" t="s">
         <v>7</v>
       </c>
-      <c r="B262" t="s">
-        <v>12</v>
+      <c r="B262">
+        <v>10000</v>
       </c>
       <c r="C262">
         <v>0.001</v>
@@ -6493,15 +6481,15 @@
         <v>0.0006666666667</v>
       </c>
       <c r="G262" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="263" spans="1:7">
       <c r="A263" t="s">
         <v>7</v>
       </c>
-      <c r="B263" t="s">
-        <v>13</v>
+      <c r="B263">
+        <v>20000</v>
       </c>
       <c r="C263">
         <v>0.001</v>
@@ -6516,15 +6504,15 @@
         <v>0.001333333333</v>
       </c>
       <c r="G263" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" t="s">
         <v>7</v>
       </c>
-      <c r="B264" t="s">
-        <v>14</v>
+      <c r="B264">
+        <v>40000</v>
       </c>
       <c r="C264">
         <v>0.003</v>
@@ -6539,15 +6527,15 @@
         <v>0.002333333333</v>
       </c>
       <c r="G264" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" t="s">
         <v>7</v>
       </c>
-      <c r="B265" t="s">
-        <v>15</v>
+      <c r="B265">
+        <v>80000</v>
       </c>
       <c r="C265">
         <v>0.007</v>
@@ -6562,15 +6550,15 @@
         <v>0.006666666667</v>
       </c>
       <c r="G265" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" t="s">
         <v>8</v>
       </c>
-      <c r="B266" t="s">
-        <v>12</v>
+      <c r="B266">
+        <v>10000</v>
       </c>
       <c r="C266">
         <v>0.001</v>
@@ -6585,15 +6573,15 @@
         <v>0.001</v>
       </c>
       <c r="G266" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" t="s">
         <v>8</v>
       </c>
-      <c r="B267" t="s">
-        <v>13</v>
+      <c r="B267">
+        <v>20000</v>
       </c>
       <c r="C267">
         <v>0.003</v>
@@ -6608,15 +6596,15 @@
         <v>0.003</v>
       </c>
       <c r="G267" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" t="s">
         <v>8</v>
       </c>
-      <c r="B268" t="s">
-        <v>14</v>
+      <c r="B268">
+        <v>40000</v>
       </c>
       <c r="C268">
         <v>0.006</v>
@@ -6631,15 +6619,15 @@
         <v>0.006</v>
       </c>
       <c r="G268" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" t="s">
         <v>8</v>
       </c>
-      <c r="B269" t="s">
-        <v>15</v>
+      <c r="B269">
+        <v>80000</v>
       </c>
       <c r="C269">
         <v>0.013</v>
@@ -6654,15 +6642,15 @@
         <v>0.01233333333</v>
       </c>
       <c r="G269" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" t="s">
         <v>9</v>
       </c>
-      <c r="B270" t="s">
-        <v>12</v>
+      <c r="B270">
+        <v>10000</v>
       </c>
       <c r="C270">
         <v>0.001</v>
@@ -6677,15 +6665,15 @@
         <v>0.001666666667</v>
       </c>
       <c r="G270" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" t="s">
         <v>9</v>
       </c>
-      <c r="B271" t="s">
-        <v>13</v>
+      <c r="B271">
+        <v>20000</v>
       </c>
       <c r="C271">
         <v>0.003</v>
@@ -6700,15 +6688,15 @@
         <v>0.003</v>
       </c>
       <c r="G271" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" t="s">
         <v>9</v>
       </c>
-      <c r="B272" t="s">
-        <v>14</v>
+      <c r="B272">
+        <v>40000</v>
       </c>
       <c r="C272">
         <v>0.006</v>
@@ -6723,15 +6711,15 @@
         <v>0.006</v>
       </c>
       <c r="G272" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" t="s">
         <v>9</v>
       </c>
-      <c r="B273" t="s">
-        <v>15</v>
+      <c r="B273">
+        <v>80000</v>
       </c>
       <c r="C273">
         <v>0.013</v>
@@ -6746,15 +6734,15 @@
         <v>0.012</v>
       </c>
       <c r="G273" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" t="s">
         <v>10</v>
       </c>
-      <c r="B274" t="s">
-        <v>12</v>
+      <c r="B274">
+        <v>10000</v>
       </c>
       <c r="C274">
         <v>0.002</v>
@@ -6769,15 +6757,15 @@
         <v>0.001666666667</v>
       </c>
       <c r="G274" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="275" spans="1:7">
       <c r="A275" t="s">
         <v>10</v>
       </c>
-      <c r="B275" t="s">
-        <v>13</v>
+      <c r="B275">
+        <v>20000</v>
       </c>
       <c r="C275">
         <v>0.003</v>
@@ -6792,15 +6780,15 @@
         <v>0.003</v>
       </c>
       <c r="G275" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="276" spans="1:7">
       <c r="A276" t="s">
         <v>10</v>
       </c>
-      <c r="B276" t="s">
-        <v>14</v>
+      <c r="B276">
+        <v>40000</v>
       </c>
       <c r="C276">
         <v>0.006</v>
@@ -6815,15 +6803,15 @@
         <v>0.006</v>
       </c>
       <c r="G276" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" t="s">
         <v>10</v>
       </c>
-      <c r="B277" t="s">
-        <v>15</v>
+      <c r="B277">
+        <v>80000</v>
       </c>
       <c r="C277">
         <v>0.012</v>
@@ -6838,15 +6826,15 @@
         <v>0.01266666667</v>
       </c>
       <c r="G277" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="278" spans="1:7">
       <c r="A278" t="s">
         <v>11</v>
       </c>
-      <c r="B278" t="s">
-        <v>12</v>
+      <c r="B278">
+        <v>10000</v>
       </c>
       <c r="C278">
         <v>0.001</v>
@@ -6861,15 +6849,15 @@
         <v>0.0003333333333</v>
       </c>
       <c r="G278" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="279" spans="1:7">
       <c r="A279" t="s">
         <v>11</v>
       </c>
-      <c r="B279" t="s">
-        <v>13</v>
+      <c r="B279">
+        <v>20000</v>
       </c>
       <c r="C279">
         <v>0.002</v>
@@ -6884,15 +6872,15 @@
         <v>0.002</v>
       </c>
       <c r="G279" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="280" spans="1:7">
       <c r="A280" t="s">
         <v>11</v>
       </c>
-      <c r="B280" t="s">
-        <v>14</v>
+      <c r="B280">
+        <v>40000</v>
       </c>
       <c r="C280">
         <v>0.003</v>
@@ -6907,15 +6895,15 @@
         <v>0.003333333333</v>
       </c>
       <c r="G280" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" t="s">
         <v>11</v>
       </c>
-      <c r="B281" t="s">
-        <v>15</v>
+      <c r="B281">
+        <v>80000</v>
       </c>
       <c r="C281">
         <v>0.006</v>
@@ -6930,15 +6918,15 @@
         <v>0.006666666667</v>
       </c>
       <c r="G281" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="282" spans="1:7">
       <c r="A282" t="s">
         <v>7</v>
       </c>
-      <c r="B282" t="s">
-        <v>12</v>
+      <c r="B282">
+        <v>10000</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -6953,15 +6941,15 @@
         <v>0.0006666666667</v>
       </c>
       <c r="G282" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="283" spans="1:7">
       <c r="A283" t="s">
         <v>7</v>
       </c>
-      <c r="B283" t="s">
-        <v>13</v>
+      <c r="B283">
+        <v>20000</v>
       </c>
       <c r="C283">
         <v>0.001</v>
@@ -6976,15 +6964,15 @@
         <v>0.001</v>
       </c>
       <c r="G283" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="284" spans="1:7">
       <c r="A284" t="s">
         <v>7</v>
       </c>
-      <c r="B284" t="s">
-        <v>14</v>
+      <c r="B284">
+        <v>40000</v>
       </c>
       <c r="C284">
         <v>0.001</v>
@@ -6999,15 +6987,15 @@
         <v>0.001</v>
       </c>
       <c r="G284" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="285" spans="1:7">
       <c r="A285" t="s">
         <v>7</v>
       </c>
-      <c r="B285" t="s">
-        <v>15</v>
+      <c r="B285">
+        <v>80000</v>
       </c>
       <c r="C285">
         <v>0.003</v>
@@ -7022,15 +7010,15 @@
         <v>0.001</v>
       </c>
       <c r="G285" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="286" spans="1:7">
       <c r="A286" t="s">
         <v>8</v>
       </c>
-      <c r="B286" t="s">
-        <v>12</v>
+      <c r="B286">
+        <v>10000</v>
       </c>
       <c r="C286">
         <v>0.006</v>
@@ -7045,15 +7033,15 @@
         <v>0.006</v>
       </c>
       <c r="G286" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" t="s">
         <v>8</v>
       </c>
-      <c r="B287" t="s">
-        <v>13</v>
+      <c r="B287">
+        <v>20000</v>
       </c>
       <c r="C287">
         <v>0.013</v>
@@ -7068,15 +7056,15 @@
         <v>0.01333333333</v>
       </c>
       <c r="G287" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" t="s">
         <v>8</v>
       </c>
-      <c r="B288" t="s">
-        <v>14</v>
+      <c r="B288">
+        <v>40000</v>
       </c>
       <c r="C288">
         <v>0.034</v>
@@ -7091,15 +7079,15 @@
         <v>0.03466666667</v>
       </c>
       <c r="G288" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
         <v>8</v>
       </c>
-      <c r="B289" t="s">
-        <v>15</v>
+      <c r="B289">
+        <v>80000</v>
       </c>
       <c r="C289">
         <v>0.079</v>
@@ -7114,15 +7102,15 @@
         <v>0.07966666667</v>
       </c>
       <c r="G289" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" t="s">
         <v>9</v>
       </c>
-      <c r="B290" t="s">
-        <v>12</v>
+      <c r="B290">
+        <v>10000</v>
       </c>
       <c r="C290">
         <v>0.006</v>
@@ -7137,15 +7125,15 @@
         <v>0.006</v>
       </c>
       <c r="G290" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="291" spans="1:7">
       <c r="A291" t="s">
         <v>9</v>
       </c>
-      <c r="B291" t="s">
-        <v>13</v>
+      <c r="B291">
+        <v>20000</v>
       </c>
       <c r="C291">
         <v>0.014</v>
@@ -7160,15 +7148,15 @@
         <v>0.01366666667</v>
       </c>
       <c r="G291" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
         <v>9</v>
       </c>
-      <c r="B292" t="s">
-        <v>14</v>
+      <c r="B292">
+        <v>40000</v>
       </c>
       <c r="C292">
         <v>0.034</v>
@@ -7183,15 +7171,15 @@
         <v>0.03433333333</v>
       </c>
       <c r="G292" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="s">
         <v>9</v>
       </c>
-      <c r="B293" t="s">
-        <v>15</v>
+      <c r="B293">
+        <v>80000</v>
       </c>
       <c r="C293">
         <v>0.078</v>
@@ -7206,15 +7194,15 @@
         <v>0.07833333333</v>
       </c>
       <c r="G293" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
         <v>10</v>
       </c>
-      <c r="B294" t="s">
-        <v>12</v>
+      <c r="B294">
+        <v>10000</v>
       </c>
       <c r="C294">
         <v>0.005</v>
@@ -7229,15 +7217,15 @@
         <v>0.005333333333</v>
       </c>
       <c r="G294" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
         <v>10</v>
       </c>
-      <c r="B295" t="s">
-        <v>13</v>
+      <c r="B295">
+        <v>20000</v>
       </c>
       <c r="C295">
         <v>0.013</v>
@@ -7252,15 +7240,15 @@
         <v>0.013</v>
       </c>
       <c r="G295" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
         <v>10</v>
       </c>
-      <c r="B296" t="s">
-        <v>14</v>
+      <c r="B296">
+        <v>40000</v>
       </c>
       <c r="C296">
         <v>0.032</v>
@@ -7275,15 +7263,15 @@
         <v>0.03266666667</v>
       </c>
       <c r="G296" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
         <v>10</v>
       </c>
-      <c r="B297" t="s">
-        <v>15</v>
+      <c r="B297">
+        <v>80000</v>
       </c>
       <c r="C297">
         <v>0.077</v>
@@ -7298,15 +7286,15 @@
         <v>0.07733333333</v>
       </c>
       <c r="G297" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
         <v>11</v>
       </c>
-      <c r="B298" t="s">
-        <v>12</v>
+      <c r="B298">
+        <v>10000</v>
       </c>
       <c r="C298">
         <v>0.003</v>
@@ -7321,15 +7309,15 @@
         <v>0.002333333333</v>
       </c>
       <c r="G298" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
         <v>11</v>
       </c>
-      <c r="B299" t="s">
-        <v>13</v>
+      <c r="B299">
+        <v>20000</v>
       </c>
       <c r="C299">
         <v>0.006</v>
@@ -7344,15 +7332,15 @@
         <v>0.005333333333</v>
       </c>
       <c r="G299" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
         <v>11</v>
       </c>
-      <c r="B300" t="s">
-        <v>14</v>
+      <c r="B300">
+        <v>40000</v>
       </c>
       <c r="C300">
         <v>0.01</v>
@@ -7367,15 +7355,15 @@
         <v>0.011</v>
       </c>
       <c r="G300" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
         <v>11</v>
       </c>
-      <c r="B301" t="s">
-        <v>15</v>
+      <c r="B301">
+        <v>80000</v>
       </c>
       <c r="C301">
         <v>0.023</v>
@@ -7390,7 +7378,7 @@
         <v>0.023</v>
       </c>
       <c r="G301" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
